--- a/BoSClean/income_summary.xlsx
+++ b/BoSClean/income_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,11 @@
           <t>Assessment Stage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -487,6 +492,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +522,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,6 +582,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,6 +612,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -612,6 +642,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -637,6 +672,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -662,6 +702,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -687,6 +732,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -712,6 +762,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -737,6 +792,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -762,6 +822,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -787,6 +852,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -812,6 +882,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -837,6 +912,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -862,6 +942,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -887,6 +972,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -912,6 +1002,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -937,6 +1032,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -962,6 +1062,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -987,6 +1092,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1012,6 +1122,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1037,6 +1152,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1062,6 +1182,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1087,6 +1212,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1112,6 +1242,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1137,6 +1272,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1162,6 +1302,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1187,6 +1332,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1212,6 +1362,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1237,6 +1392,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1262,6 +1422,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1287,6 +1452,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1312,6 +1482,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1337,6 +1512,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1362,6 +1542,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1387,6 +1572,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1412,6 +1602,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1437,6 +1632,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1462,6 +1662,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1487,6 +1692,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1512,6 +1722,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1537,6 +1752,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1562,6 +1782,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1587,6 +1812,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1612,6 +1842,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1637,6 +1872,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1662,6 +1902,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1687,6 +1932,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1712,6 +1962,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1737,6 +1992,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1762,6 +2022,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1787,6 +2052,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1810,6 +2080,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Exit</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
         </is>
       </c>
     </row>
@@ -1824,7 +2099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,6 +2133,11 @@
           <t>Assessment Stage</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1883,6 +2163,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1908,6 +2193,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1933,6 +2223,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1958,6 +2253,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1983,6 +2283,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2008,6 +2313,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2033,6 +2343,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2058,6 +2373,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2083,6 +2403,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2108,6 +2433,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2133,6 +2463,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2158,6 +2493,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2183,6 +2523,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2208,6 +2553,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2233,6 +2583,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2258,6 +2613,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2283,6 +2643,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2308,6 +2673,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2333,6 +2703,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2358,6 +2733,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2383,6 +2763,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2408,6 +2793,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2433,6 +2823,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2458,6 +2853,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2483,6 +2883,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2508,6 +2913,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2533,6 +2943,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2558,6 +2973,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2583,6 +3003,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2608,6 +3033,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2633,6 +3063,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2658,6 +3093,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2683,6 +3123,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2708,6 +3153,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2733,6 +3183,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2758,6 +3213,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2783,6 +3243,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2808,6 +3273,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2833,6 +3303,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2858,6 +3333,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2883,6 +3363,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2908,6 +3393,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2933,6 +3423,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2958,6 +3453,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2983,6 +3483,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3008,6 +3513,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3033,6 +3543,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3058,6 +3573,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3083,6 +3603,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3108,6 +3633,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3133,6 +3663,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3158,6 +3693,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3183,6 +3723,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3208,6 +3753,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3233,6 +3783,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3258,6 +3813,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3283,6 +3843,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3308,6 +3873,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3333,6 +3903,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3358,6 +3933,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3383,6 +3963,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3408,6 +3993,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3433,6 +4023,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3458,6 +4053,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3483,6 +4083,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3508,6 +4113,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3533,6 +4143,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3558,6 +4173,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3583,6 +4203,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3608,6 +4233,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3633,6 +4263,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3658,6 +4293,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3683,6 +4323,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3708,6 +4353,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3733,6 +4383,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3758,6 +4413,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3783,6 +4443,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3808,6 +4473,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3833,6 +4503,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3858,6 +4533,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3883,6 +4563,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3908,6 +4593,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3933,6 +4623,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3958,6 +4653,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3983,6 +4683,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4008,6 +4713,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4033,6 +4743,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4058,6 +4773,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4083,6 +4803,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4108,6 +4833,11 @@
           <t>Entry</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4133,6 +4863,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4158,6 +4893,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4183,6 +4923,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4208,6 +4953,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4233,6 +4983,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4258,6 +5013,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4283,6 +5043,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4308,6 +5073,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4333,6 +5103,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4358,6 +5133,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4383,6 +5163,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4408,6 +5193,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4433,6 +5223,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4458,6 +5253,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4483,6 +5283,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4508,6 +5313,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4533,6 +5343,11 @@
           <t>Exit</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4556,6 +5371,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Exit</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
         </is>
       </c>
     </row>
@@ -4565,6 +5385,1677 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Provider Abbrev</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Provider Tree</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Receiving Benefit</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Assessment Stage</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OC PATH</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OC PATH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC PATH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC PATH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SPC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3055</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SPC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3055</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ORRH</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8319</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prevention</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8319</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORRH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8319</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Prevention</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8319</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Erin Park SHU</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Erin Park SHU</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Grafton SHU</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jefferson Oaks SHU</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OCHLAP1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>OCHLAP2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OCHLAP5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OLAP CG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OLAP2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ORRH</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ORRH2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Palmer Pointe SHU</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Unity Park SHU</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Grafton SHU</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>143-Grafton SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jefferson Oaks SHU</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCHLAP1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCHLAP2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCHLAP5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OLAP CG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>OLAP2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ORRH</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ORRH2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Palmer Pointe SHU</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Unity Park SHU</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WCHLAP1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>11495</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>WCHLAP1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11495</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MC RRH</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MC SSO</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MCHLAP1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MCHLAP5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MCHLAP6</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MLAP1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MLAP2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MLAP6</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MLAP7</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MC RRH</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MC SSO</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MCHLAP1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MCHLAP5</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MCHLAP6</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MLAP1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MLAP2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MLAP6</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MLAP7</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4591,17 +7082,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Receiving Benefit</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Percent</t>
+          <t>Assessment Stage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Assessment Stage</t>
+          <t>UID</t>
         </is>
       </c>
     </row>
@@ -4616,17 +7107,17 @@
           <t>1492</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>8.609999999999999</v>
+      <c r="C2" t="n">
+        <v>809</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1492-OC PATH</t>
         </is>
       </c>
     </row>
@@ -4641,17 +7132,17 @@
           <t>1492</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>8.77</v>
+      <c r="C3" t="n">
+        <v>825</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1492-OC PATH</t>
         </is>
       </c>
     </row>
@@ -4666,17 +7157,17 @@
           <t>1492</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10.29</v>
+      <c r="C4" t="n">
+        <v>907</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1492-MC PATH</t>
         </is>
       </c>
     </row>
@@ -4691,17 +7182,17 @@
           <t>1492</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10.67</v>
+      <c r="C5" t="n">
+        <v>908</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1492-MC PATH</t>
         </is>
       </c>
     </row>
@@ -4716,17 +7207,17 @@
           <t>3055</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6.9</v>
+      <c r="C6" t="n">
+        <v>750</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>3055-SPC</t>
         </is>
       </c>
     </row>
@@ -4741,17 +7232,17 @@
           <t>3055</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8.31</v>
+      <c r="C7" t="n">
+        <v>750</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>3055-SPC</t>
         </is>
       </c>
     </row>
@@ -4766,17 +7257,17 @@
           <t>8319</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5.59</v>
+      <c r="C8" t="n">
+        <v>800</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>8319-ORRH</t>
         </is>
       </c>
     </row>
@@ -4791,17 +7282,17 @@
           <t>8319</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>5.28</v>
+      <c r="C9" t="n">
+        <v>905.5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>8319-Prevention</t>
         </is>
       </c>
     </row>
@@ -4816,17 +7307,17 @@
           <t>8319</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5.67</v>
+      <c r="C10" t="n">
+        <v>800</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>8319-ORRH</t>
         </is>
       </c>
     </row>
@@ -4841,17 +7332,17 @@
           <t>8319</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>5.45</v>
+      <c r="C11" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>8319-Prevention</t>
         </is>
       </c>
     </row>
@@ -4866,17 +7357,17 @@
           <t>12312</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>9.6</v>
+      <c r="C12" t="n">
+        <v>768</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>12312-Erin Park SHU</t>
         </is>
       </c>
     </row>
@@ -4891,17 +7382,17 @@
           <t>12312</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>9.51</v>
+      <c r="C13" t="n">
+        <v>768</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>12312-Erin Park SHU</t>
         </is>
       </c>
     </row>
@@ -4916,17 +7407,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>10.46</v>
+      <c r="C14" t="n">
+        <v>628.67</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-Grafton SHU</t>
         </is>
       </c>
     </row>
@@ -4941,17 +7432,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>6.25</v>
+      <c r="C15" t="n">
+        <v>641</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-Jefferson Oaks SHU</t>
         </is>
       </c>
     </row>
@@ -4966,17 +7457,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8.699999999999999</v>
+      <c r="C16" t="n">
+        <v>806</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-OCHLAP1</t>
         </is>
       </c>
     </row>
@@ -4991,17 +7482,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>8.470000000000001</v>
+      <c r="C17" t="n">
+        <v>278</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-OCHLAP2</t>
         </is>
       </c>
     </row>
@@ -5016,17 +7507,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>12.12</v>
+      <c r="C18" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-OCHLAP5</t>
         </is>
       </c>
     </row>
@@ -5041,17 +7532,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>6.94</v>
+      <c r="C19" t="n">
+        <v>632</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-OLAP CG</t>
         </is>
       </c>
     </row>
@@ -5066,17 +7557,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>6.72</v>
+      <c r="C20" t="n">
+        <v>730</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-OLAP2</t>
         </is>
       </c>
     </row>
@@ -5091,17 +7582,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>4.05</v>
+      <c r="C21" t="n">
+        <v>746</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-ORRH</t>
         </is>
       </c>
     </row>
@@ -5116,17 +7607,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>5.2</v>
+      <c r="C22" t="n">
+        <v>758.5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-ORRH2</t>
         </is>
       </c>
     </row>
@@ -5141,17 +7632,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>7.8</v>
+      <c r="C23" t="n">
+        <v>603</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-Palmer Pointe SHU</t>
         </is>
       </c>
     </row>
@@ -5166,17 +7657,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>7.99</v>
+      <c r="C24" t="n">
+        <v>704</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>143-Unity Park SHU</t>
         </is>
       </c>
     </row>
@@ -5191,17 +7682,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>10.14</v>
+      <c r="C25" t="n">
+        <v>750</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-Grafton SHU</t>
         </is>
       </c>
     </row>
@@ -5216,17 +7707,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>6.84</v>
+      <c r="C26" t="n">
+        <v>710.95</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-Jefferson Oaks SHU</t>
         </is>
       </c>
     </row>
@@ -5241,17 +7732,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>10</v>
+      <c r="C27" t="n">
+        <v>914</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-OCHLAP1</t>
         </is>
       </c>
     </row>
@@ -5266,17 +7757,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>10.75</v>
+      <c r="C28" t="n">
+        <v>724.5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-OCHLAP2</t>
         </is>
       </c>
     </row>
@@ -5291,17 +7782,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>9.09</v>
+      <c r="C29" t="n">
+        <v>657</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-OCHLAP5</t>
         </is>
       </c>
     </row>
@@ -5316,17 +7807,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>6.2</v>
+      <c r="C30" t="n">
+        <v>829</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-OLAP CG</t>
         </is>
       </c>
     </row>
@@ -5341,17 +7832,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>6.3</v>
+      <c r="C31" t="n">
+        <v>914</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-OLAP2</t>
         </is>
       </c>
     </row>
@@ -5366,17 +7857,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>4.39</v>
+      <c r="C32" t="n">
+        <v>746</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-ORRH</t>
         </is>
       </c>
     </row>
@@ -5391,17 +7882,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>5.45</v>
+      <c r="C33" t="n">
+        <v>811.3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-ORRH2</t>
         </is>
       </c>
     </row>
@@ -5416,17 +7907,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>6.82</v>
+      <c r="C34" t="n">
+        <v>603</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-Palmer Pointe SHU</t>
         </is>
       </c>
     </row>
@@ -5441,17 +7932,17 @@
           <t>143</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>7.84</v>
+      <c r="C35" t="n">
+        <v>721</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>143-Unity Park SHU</t>
         </is>
       </c>
     </row>
@@ -5466,17 +7957,17 @@
           <t>11495</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>5.06</v>
+      <c r="C36" t="n">
+        <v>472</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>11495-WCHLAP1</t>
         </is>
       </c>
     </row>
@@ -5491,17 +7982,17 @@
           <t>11495</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>6.08</v>
+      <c r="C37" t="n">
+        <v>755</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>11495-WCHLAP1</t>
         </is>
       </c>
     </row>
@@ -5516,17 +8007,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>6.98</v>
+      <c r="C38" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MC RRH</t>
         </is>
       </c>
     </row>
@@ -5541,17 +8032,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>9.81</v>
+      <c r="C39" t="n">
+        <v>905</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MC SSO</t>
         </is>
       </c>
     </row>
@@ -5566,17 +8057,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>9.859999999999999</v>
+      <c r="C40" t="n">
+        <v>310</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MCHLAP1</t>
         </is>
       </c>
     </row>
@@ -5591,17 +8082,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>9.300000000000001</v>
+      <c r="C41" t="n">
+        <v>780.5</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MCHLAP5</t>
         </is>
       </c>
     </row>
@@ -5616,17 +8107,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>8.039999999999999</v>
+      <c r="C42" t="n">
+        <v>694</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MCHLAP6</t>
         </is>
       </c>
     </row>
@@ -5641,17 +8132,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>6.27</v>
+      <c r="C43" t="n">
+        <v>710</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MLAP1</t>
         </is>
       </c>
     </row>
@@ -5666,17 +8157,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>26.67</v>
+      <c r="C44" t="n">
+        <v>359</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MLAP2</t>
         </is>
       </c>
     </row>
@@ -5691,17 +8182,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>10.71</v>
+      <c r="C45" t="n">
+        <v>100</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MLAP6</t>
         </is>
       </c>
     </row>
@@ -5716,17 +8207,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>6.71</v>
+      <c r="C46" t="n">
+        <v>721.5</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Entry</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Entry</t>
+          <t>1371-MLAP7</t>
         </is>
       </c>
     </row>
@@ -5741,17 +8232,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>6.98</v>
+      <c r="C47" t="n">
+        <v>2248</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1371-MC RRH</t>
         </is>
       </c>
     </row>
@@ -5766,17 +8257,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>10.46</v>
+      <c r="C48" t="n">
+        <v>920.5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1371-MC SSO</t>
         </is>
       </c>
     </row>
@@ -5791,17 +8282,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>9.050000000000001</v>
+      <c r="C49" t="n">
+        <v>452</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1371-MCHLAP1</t>
         </is>
       </c>
     </row>
@@ -5816,17 +8307,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>9.199999999999999</v>
+      <c r="C50" t="n">
+        <v>879.5</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1371-MCHLAP5</t>
         </is>
       </c>
     </row>
@@ -5841,17 +8332,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>8.210000000000001</v>
+      <c r="C51" t="n">
+        <v>784</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1371-MCHLAP6</t>
         </is>
       </c>
     </row>
@@ -5866,17 +8357,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>4.93</v>
+      <c r="C52" t="n">
+        <v>776.5</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1371-MLAP1</t>
         </is>
       </c>
     </row>
@@ -5891,17 +8382,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>5.26</v>
+      <c r="C53" t="n">
+        <v>832</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1371-MLAP2</t>
         </is>
       </c>
     </row>
@@ -5916,17 +8407,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>9.52</v>
+      <c r="C54" t="n">
+        <v>467</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>1371-MLAP6</t>
         </is>
       </c>
     </row>
@@ -5941,1138 +8432,17 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Provider Abbrev</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Provider Tree</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Assessment Stage</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>OC PATH</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1492</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>809</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OC PATH</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1492</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>825</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MC PATH</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1492</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>907</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MC PATH</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1492</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>908</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SPC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3055</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>750</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SPC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3055</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>750</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ORRH</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8319</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>800</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Prevention</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8319</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>905.5</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ORRH</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8319</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>800</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Prevention</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8319</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1047</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Erin Park SHU</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>768</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Erin Park SHU</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>768</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Grafton SHU</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>628.67</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Jefferson Oaks SHU</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>641</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>OCHLAP1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>806</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>OCHLAP2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>278</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>OCHLAP5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>OLAP CG</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>632</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>OLAP2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>730</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ORRH</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>746</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ORRH2</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>758.5</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Palmer Pointe SHU</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>603</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Unity Park SHU</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>704</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Grafton SHU</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>750</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Jefferson Oaks SHU</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>710.95</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OCHLAP1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>914</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OCHLAP2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>724.5</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>OCHLAP5</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>657</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>OLAP CG</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>829</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>OLAP2</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>914</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ORRH</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>746</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ORRH2</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>811.3</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Palmer Pointe SHU</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>603</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Unity Park SHU</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>721</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>WCHLAP1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>11495</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>472</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>WCHLAP1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>11495</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>755</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MC RRH</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MC SSO</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>905</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MCHLAP1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>310</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MCHLAP5</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>780.5</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MCHLAP6</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>694</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MLAP1</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>710</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MLAP2</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>359</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MLAP6</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>100</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MLAP7</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>721.5</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MC RRH</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>2248</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MC SSO</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>920.5</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MCHLAP1</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>452</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MCHLAP5</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>879.5</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MCHLAP6</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>784</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MLAP1</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>776.5</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MLAP2</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>832</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MLAP6</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>467</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Exit</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MLAP7</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1371</t>
-        </is>
-      </c>
       <c r="C55" t="n">
         <v>841</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>Exit</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
         </is>
       </c>
     </row>
